--- a/Assets/StreamingAssets/DialogueAfter.xlsx
+++ b/Assets/StreamingAssets/DialogueAfter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5769C3EE-CCF1-43D5-893C-7295C0E72F9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F530C-FEC6-4CDC-A2A1-2816B7430339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
   <si>
     <t>Id</t>
   </si>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>我无法理解信中所表达的情感，只是曾经心里的某种东西，在被隐隐触动着，催促我想要去了解更多。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即将进入关卡界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进入关卡选择界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原本的打算是去完成以前的大家都有的梦想——环游世界，但妻子的一句话给我噎住了半天。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,14 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结局——星星之火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结局——魂归之所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>那么从睡梦中醒来的我，又该做些什么，该去往何方呢。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,6 +578,18 @@
   </si>
   <si>
     <t>在这里，我的人生，便是我活着的意义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将返回关卡界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成结局——魂归之所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成结局——星星之火</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,7 +921,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1079,67 +1075,67 @@
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>9</v>
@@ -1148,13 +1144,13 @@
         <v>10</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="301.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1165,82 +1161,82 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AA4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
@@ -1251,112 +1247,112 @@
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="X5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="AL5" s="1" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="265.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,91 +1363,91 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="U6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="179.4" x14ac:dyDescent="0.25">
@@ -1462,34 +1458,34 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="179.4" x14ac:dyDescent="0.25">
@@ -1500,37 +1496,37 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/DialogueAfter.xlsx
+++ b/Assets/StreamingAssets/DialogueAfter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F530C-FEC6-4CDC-A2A1-2816B7430339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A24557-31EE-44E9-9271-E5AFC53DF139}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,10 +501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>难以置信，我做到了，我打败了XT公司最顶尖的战斗系统。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如今的我，已经无法在这个时代继续苟活下去了，只有反抗到底唯一一条路。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,6 +586,10 @@
   </si>
   <si>
     <t>达成结局——星星之火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难以置信，我做到了，我打败了迅腾公司最顶尖的战斗系统。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +921,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
@@ -1126,7 +1126,7 @@
         <v>27</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>8</v>
@@ -1147,10 +1147,10 @@
         <v>30</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="301.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>31</v>
@@ -1236,7 +1236,7 @@
         <v>94</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>49</v>
@@ -1352,7 +1352,7 @@
         <v>100</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="265.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>75</v>
@@ -1381,7 +1381,7 @@
         <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>101</v>
@@ -1408,7 +1408,7 @@
         <v>83</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>85</v>
@@ -1444,10 +1444,10 @@
         <v>92</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="179.4" x14ac:dyDescent="0.25">
@@ -1479,13 +1479,13 @@
         <v>118</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="179.4" x14ac:dyDescent="0.25">
@@ -1496,37 +1496,37 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
